--- a/JUGADORES T6.xlsx
+++ b/JUGADORES T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52C7DD2-88AA-40C4-BC14-28CABEB1BD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42445AD0-6A6C-4A16-89ED-466712FEC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A98060DC-1932-43E6-9169-0378406E7D7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Rubén Serna</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>David Ruiz</t>
-  </si>
-  <si>
-    <t>Javier Cabrero</t>
   </si>
   <si>
     <t>Iñaki Esnal</t>
@@ -520,7 +517,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,19 +531,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,16 +619,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,33 +636,33 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,24 +670,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/JUGADORES T6.xlsx
+++ b/JUGADORES T6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42445AD0-6A6C-4A16-89ED-466712FEC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF323571-D91A-43AD-BC59-B6AE64B5541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A98060DC-1932-43E6-9169-0378406E7D7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Rubén Serna</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Iñaki Esnal</t>
-  </si>
-  <si>
-    <t>Guillermo Soria</t>
   </si>
   <si>
     <t>Adrián Cruces</t>
@@ -517,7 +514,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,160 +528,157 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
